--- a/Fleet/TestData.xlsx
+++ b/Fleet/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>close Forgot Window</t>
   </si>
@@ -113,28 +113,31 @@
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>5, 1, 4</t>
-  </si>
-  <si>
-    <t>5, 2, 4</t>
-  </si>
-  <si>
-    <t>6, 2, 5</t>
-  </si>
-  <si>
-    <t>6, 1, 5</t>
-  </si>
-  <si>
-    <t>7, 1, 6</t>
-  </si>
-  <si>
-    <t>7, 2, 6</t>
-  </si>
-  <si>
-    <t>8, 1, 7</t>
-  </si>
-  <si>
-    <t>8, 2 , 7</t>
+    <t>Add Route --&gt; Route Name</t>
+  </si>
+  <si>
+    <t>Route123</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Add Route --&gt; select From</t>
+  </si>
+  <si>
+    <t>Marthahalli</t>
+  </si>
+  <si>
+    <t>Add Route --&gt; Stoppage</t>
+  </si>
+  <si>
+    <t>Manayata Tech Park</t>
+  </si>
+  <si>
+    <t>DemoCompany</t>
+  </si>
+  <si>
+    <t>Add Route --&gt; select To</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,12 +200,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -216,6 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +526,7 @@
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -525,7 +540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -537,7 +552,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -549,7 +564,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -559,7 +574,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -569,7 +584,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -580,28 +595,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -609,17 +612,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,14 +625,8 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -645,7 +636,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -655,7 +646,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,7 +656,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,7 +668,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,7 +680,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +690,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,6 +729,46 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
